--- a/public/SGCDB.xlsx
+++ b/public/SGCDB.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2907" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2907" uniqueCount="467">
   <si>
     <t>Nombre Local</t>
   </si>
@@ -64,7 +64,7 @@
     <t>https://www.youtube.com/</t>
   </si>
   <si>
-    <t>15 de marzo</t>
+    <t>Lunes</t>
   </si>
   <si>
     <t>Efectivo</t>
@@ -79,6 +79,9 @@
     <t>Restaurantes-Cafeterías</t>
   </si>
   <si>
+    <t>Martes</t>
+  </si>
+  <si>
     <t>Celigourmet</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>Panaderías-Pastelerías-Chocolaterías</t>
   </si>
   <si>
+    <t>Miercoles</t>
+  </si>
+  <si>
     <t>Sweet House. Sin lácteos, veganos y sin TACC. Repostería Artesanal</t>
   </si>
   <si>
@@ -97,6 +103,9 @@
     <t>Pizza-Empanadas-Pastas</t>
   </si>
   <si>
+    <t>Jueves</t>
+  </si>
+  <si>
     <t>Let it V</t>
   </si>
   <si>
@@ -106,6 +115,9 @@
     <t>Envíos a todo el país</t>
   </si>
   <si>
+    <t>Viernes</t>
+  </si>
+  <si>
     <t>Bacana Burger</t>
   </si>
   <si>
@@ -115,6 +127,9 @@
     <t>Almacenes-Dietéticas-Distribuidoras</t>
   </si>
   <si>
+    <t>Sabado</t>
+  </si>
+  <si>
     <t>Guapaletas</t>
   </si>
   <si>
@@ -124,6 +139,9 @@
     <t>Heladerías</t>
   </si>
   <si>
+    <t>Domingo</t>
+  </si>
+  <si>
     <t>Pain du jour</t>
   </si>
   <si>
@@ -767,9 +785,6 @@
   </si>
   <si>
     <t>Calle 9 de Julio, San Juan</t>
-  </si>
-  <si>
-    <t>20 de octubre</t>
   </si>
   <si>
     <t>Cuoca (Sucursal Villa Belgrano)</t>
@@ -1655,7 +1670,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1735,6 +1750,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="5" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -2134,7 +2152,7 @@
         <v>30.0</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J3" s="16" t="s">
         <v>18</v>
@@ -2142,16 +2160,16 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>14</v>
@@ -2166,7 +2184,7 @@
         <v>30.0</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>18</v>
@@ -2174,16 +2192,16 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>14</v>
@@ -2198,7 +2216,7 @@
         <v>30.0</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>18</v>
@@ -2206,16 +2224,16 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>14</v>
@@ -2230,7 +2248,7 @@
         <v>30.0</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>18</v>
@@ -2238,16 +2256,16 @@
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>14</v>
@@ -2262,7 +2280,7 @@
         <v>30.0</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>18</v>
@@ -2270,16 +2288,16 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>14</v>
@@ -2294,7 +2312,7 @@
         <v>30.0</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>18</v>
@@ -2302,16 +2320,16 @@
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>14</v>
@@ -2334,16 +2352,16 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>14</v>
@@ -2358,7 +2376,7 @@
         <v>30.0</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>18</v>
@@ -2366,10 +2384,10 @@
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>12</v>
@@ -2390,7 +2408,7 @@
         <v>30.0</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>18</v>
@@ -2398,10 +2416,10 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>12</v>
@@ -2422,7 +2440,7 @@
         <v>30.0</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>18</v>
@@ -2430,16 +2448,16 @@
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>14</v>
@@ -2454,7 +2472,7 @@
         <v>30.0</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J13" s="16" t="s">
         <v>18</v>
@@ -2462,16 +2480,16 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -2486,7 +2504,7 @@
         <v>30.0</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>18</v>
@@ -2494,16 +2512,16 @@
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>14</v>
@@ -2518,7 +2536,7 @@
         <v>30.0</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J15" s="16" t="s">
         <v>18</v>
@@ -2526,16 +2544,16 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>14</v>
@@ -2558,16 +2576,16 @@
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>14</v>
@@ -2582,7 +2600,7 @@
         <v>30.0</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J17" s="16" t="s">
         <v>18</v>
@@ -2590,16 +2608,16 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>14</v>
@@ -2614,7 +2632,7 @@
         <v>30.0</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>18</v>
@@ -2622,16 +2640,16 @@
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>14</v>
@@ -2646,7 +2664,7 @@
         <v>30.0</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>18</v>
@@ -2654,13 +2672,13 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>13</v>
@@ -2678,7 +2696,7 @@
         <v>30.0</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J20" s="10" t="s">
         <v>18</v>
@@ -2686,13 +2704,13 @@
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>21</v>
@@ -2710,7 +2728,7 @@
         <v>30.0</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J21" s="16" t="s">
         <v>18</v>
@@ -2718,16 +2736,16 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>14</v>
@@ -2742,7 +2760,7 @@
         <v>30.0</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>18</v>
@@ -2750,16 +2768,16 @@
     </row>
     <row r="23">
       <c r="A23" s="11" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>14</v>
@@ -2782,16 +2800,16 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>14</v>
@@ -2806,7 +2824,7 @@
         <v>30.0</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J24" s="10" t="s">
         <v>18</v>
@@ -2814,16 +2832,16 @@
     </row>
     <row r="25">
       <c r="A25" s="11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>14</v>
@@ -2838,7 +2856,7 @@
         <v>30.0</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J25" s="16" t="s">
         <v>18</v>
@@ -2846,16 +2864,16 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>14</v>
@@ -2870,7 +2888,7 @@
         <v>30.0</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>18</v>
@@ -2878,16 +2896,16 @@
     </row>
     <row r="27">
       <c r="A27" s="11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>14</v>
@@ -2902,7 +2920,7 @@
         <v>30.0</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J27" s="16" t="s">
         <v>18</v>
@@ -2910,16 +2928,16 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>14</v>
@@ -2934,7 +2952,7 @@
         <v>30.0</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J28" s="10" t="s">
         <v>18</v>
@@ -2942,13 +2960,13 @@
     </row>
     <row r="29">
       <c r="A29" s="11" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>13</v>
@@ -2966,7 +2984,7 @@
         <v>30.0</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J29" s="16" t="s">
         <v>18</v>
@@ -2974,13 +2992,13 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>21</v>
@@ -3006,16 +3024,16 @@
     </row>
     <row r="31">
       <c r="A31" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="D31" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>14</v>
@@ -3030,7 +3048,7 @@
         <v>30.0</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J31" s="16" t="s">
         <v>18</v>
@@ -3038,16 +3056,16 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>14</v>
@@ -3062,7 +3080,7 @@
         <v>30.0</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J32" s="10" t="s">
         <v>18</v>
@@ -3070,31 +3088,31 @@
     </row>
     <row r="33">
       <c r="A33" s="11" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D33" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="14">
+        <v>30.0</v>
+      </c>
+      <c r="I33" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="14">
-        <v>30.0</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="J33" s="16" t="s">
         <v>18</v>
@@ -3102,16 +3120,16 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>14</v>
@@ -3126,7 +3144,7 @@
         <v>30.0</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J34" s="10" t="s">
         <v>18</v>
@@ -3134,16 +3152,16 @@
     </row>
     <row r="35">
       <c r="A35" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>14</v>
@@ -3158,7 +3176,7 @@
         <v>30.0</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J35" s="16" t="s">
         <v>18</v>
@@ -3166,17 +3184,17 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="E36" s="7" t="s">
         <v>14</v>
       </c>
@@ -3190,7 +3208,7 @@
         <v>30.0</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J36" s="10" t="s">
         <v>18</v>
@@ -3198,16 +3216,16 @@
     </row>
     <row r="37">
       <c r="A37" s="11" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>14</v>
@@ -3230,13 +3248,13 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>13</v>
@@ -3254,7 +3272,7 @@
         <v>30.0</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J38" s="10" t="s">
         <v>18</v>
@@ -3262,13 +3280,13 @@
     </row>
     <row r="39">
       <c r="A39" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>21</v>
@@ -3286,7 +3304,7 @@
         <v>30.0</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J39" s="16" t="s">
         <v>18</v>
@@ -3294,16 +3312,16 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>14</v>
@@ -3318,7 +3336,7 @@
         <v>30.0</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J40" s="10" t="s">
         <v>18</v>
@@ -3326,16 +3344,16 @@
     </row>
     <row r="41">
       <c r="A41" s="11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>14</v>
@@ -3350,7 +3368,7 @@
         <v>30.0</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J41" s="16" t="s">
         <v>18</v>
@@ -3358,16 +3376,16 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>14</v>
@@ -3382,7 +3400,7 @@
         <v>30.0</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J42" s="10" t="s">
         <v>18</v>
@@ -3390,16 +3408,16 @@
     </row>
     <row r="43">
       <c r="A43" s="11" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>14</v>
@@ -3414,7 +3432,7 @@
         <v>30.0</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J43" s="16" t="s">
         <v>18</v>
@@ -3422,16 +3440,16 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>14</v>
@@ -3454,16 +3472,16 @@
     </row>
     <row r="45">
       <c r="A45" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="D45" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>14</v>
@@ -3478,7 +3496,7 @@
         <v>30.0</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J45" s="16" t="s">
         <v>18</v>
@@ -3486,16 +3504,16 @@
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>14</v>
@@ -3510,7 +3528,7 @@
         <v>30.0</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J46" s="10" t="s">
         <v>18</v>
@@ -3518,13 +3536,13 @@
     </row>
     <row r="47">
       <c r="A47" s="11" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>13</v>
@@ -3542,7 +3560,7 @@
         <v>30.0</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J47" s="16" t="s">
         <v>18</v>
@@ -3550,13 +3568,13 @@
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>21</v>
@@ -3574,7 +3592,7 @@
         <v>30.0</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J48" s="10" t="s">
         <v>18</v>
@@ -3582,16 +3600,16 @@
     </row>
     <row r="49">
       <c r="A49" s="11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>14</v>
@@ -3606,7 +3624,7 @@
         <v>30.0</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J49" s="16" t="s">
         <v>18</v>
@@ -3614,16 +3632,16 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>14</v>
@@ -3638,7 +3656,7 @@
         <v>30.0</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J50" s="10" t="s">
         <v>18</v>
@@ -3646,16 +3664,16 @@
     </row>
     <row r="51">
       <c r="A51" s="11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>14</v>
@@ -3678,16 +3696,16 @@
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="D52" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>14</v>
@@ -3702,7 +3720,7 @@
         <v>30.0</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J52" s="10" t="s">
         <v>18</v>
@@ -3710,16 +3728,16 @@
     </row>
     <row r="53">
       <c r="A53" s="11" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>14</v>
@@ -3734,7 +3752,7 @@
         <v>30.0</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J53" s="16" t="s">
         <v>18</v>
@@ -3742,16 +3760,16 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>14</v>
@@ -3766,7 +3784,7 @@
         <v>30.0</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J54" s="10" t="s">
         <v>18</v>
@@ -3774,16 +3792,16 @@
     </row>
     <row r="55">
       <c r="A55" s="11" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>14</v>
@@ -3798,7 +3816,7 @@
         <v>30.0</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J55" s="16" t="s">
         <v>18</v>
@@ -3806,13 +3824,13 @@
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>13</v>
@@ -3830,7 +3848,7 @@
         <v>30.0</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J56" s="10" t="s">
         <v>18</v>
@@ -3838,13 +3856,13 @@
     </row>
     <row r="57">
       <c r="A57" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>21</v>
@@ -3862,7 +3880,7 @@
         <v>30.0</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J57" s="16" t="s">
         <v>18</v>
@@ -3870,16 +3888,16 @@
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>14</v>
@@ -3902,16 +3920,16 @@
     </row>
     <row r="59">
       <c r="A59" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>14</v>
@@ -3926,7 +3944,7 @@
         <v>30.0</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J59" s="16" t="s">
         <v>18</v>
@@ -3934,16 +3952,16 @@
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>14</v>
@@ -3958,7 +3976,7 @@
         <v>30.0</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J60" s="10" t="s">
         <v>18</v>
@@ -3966,16 +3984,16 @@
     </row>
     <row r="61">
       <c r="A61" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>102</v>
-      </c>
       <c r="D61" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>14</v>
@@ -3990,7 +4008,7 @@
         <v>30.0</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J61" s="16" t="s">
         <v>18</v>
@@ -3998,16 +4016,16 @@
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>14</v>
@@ -4022,7 +4040,7 @@
         <v>30.0</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J62" s="10" t="s">
         <v>18</v>
@@ -4030,16 +4048,16 @@
     </row>
     <row r="63">
       <c r="A63" s="11" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>14</v>
@@ -4054,7 +4072,7 @@
         <v>30.0</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J63" s="16" t="s">
         <v>18</v>
@@ -4068,25 +4086,25 @@
         <v>11</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D64" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="I64" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H64" s="8">
-        <v>30.0</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="J64" s="10" t="s">
         <v>18</v>
@@ -4094,13 +4112,13 @@
     </row>
     <row r="65">
       <c r="A65" s="11" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>13</v>
@@ -4126,13 +4144,13 @@
     </row>
     <row r="66">
       <c r="A66" s="5" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>21</v>
@@ -4150,7 +4168,7 @@
         <v>30.0</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J66" s="10" t="s">
         <v>18</v>
@@ -4158,16 +4176,16 @@
     </row>
     <row r="67">
       <c r="A67" s="11" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>14</v>
@@ -4182,7 +4200,7 @@
         <v>30.0</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J67" s="16" t="s">
         <v>18</v>
@@ -4190,16 +4208,16 @@
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>14</v>
@@ -4214,7 +4232,7 @@
         <v>30.0</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J68" s="10" t="s">
         <v>18</v>
@@ -4222,16 +4240,16 @@
     </row>
     <row r="69">
       <c r="A69" s="11" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>14</v>
@@ -4246,7 +4264,7 @@
         <v>30.0</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J69" s="16" t="s">
         <v>18</v>
@@ -4254,16 +4272,16 @@
     </row>
     <row r="70">
       <c r="A70" s="5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>14</v>
@@ -4278,7 +4296,7 @@
         <v>30.0</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J70" s="10" t="s">
         <v>18</v>
@@ -4290,10 +4308,10 @@
         <v>11</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>14</v>
@@ -4308,7 +4326,7 @@
         <v>30.0</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J71" s="16" t="s">
         <v>18</v>
@@ -4316,16 +4334,16 @@
     </row>
     <row r="72">
       <c r="A72" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>14</v>
@@ -4348,16 +4366,16 @@
     </row>
     <row r="73">
       <c r="A73" s="11" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>14</v>
@@ -4372,7 +4390,7 @@
         <v>30.0</v>
       </c>
       <c r="I73" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J73" s="16" t="s">
         <v>18</v>
@@ -4380,13 +4398,13 @@
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>13</v>
@@ -4404,7 +4422,7 @@
         <v>30.0</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J74" s="10" t="s">
         <v>18</v>
@@ -4412,13 +4430,13 @@
     </row>
     <row r="75">
       <c r="A75" s="11" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>21</v>
@@ -4436,7 +4454,7 @@
         <v>30.0</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J75" s="16" t="s">
         <v>18</v>
@@ -4444,16 +4462,16 @@
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>14</v>
@@ -4468,7 +4486,7 @@
         <v>30.0</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J76" s="10" t="s">
         <v>18</v>
@@ -4476,16 +4494,16 @@
     </row>
     <row r="77">
       <c r="A77" s="11" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>14</v>
@@ -4500,7 +4518,7 @@
         <v>30.0</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J77" s="16" t="s">
         <v>18</v>
@@ -4508,16 +4526,16 @@
     </row>
     <row r="78">
       <c r="A78" s="5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>14</v>
@@ -4532,7 +4550,7 @@
         <v>30.0</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J78" s="10" t="s">
         <v>18</v>
@@ -4540,16 +4558,16 @@
     </row>
     <row r="79">
       <c r="A79" s="11" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>14</v>
@@ -4572,16 +4590,16 @@
     </row>
     <row r="80">
       <c r="A80" s="5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>14</v>
@@ -4596,7 +4614,7 @@
         <v>30.0</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J80" s="10" t="s">
         <v>18</v>
@@ -4604,16 +4622,16 @@
     </row>
     <row r="81">
       <c r="A81" s="11" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E81" s="13" t="s">
         <v>14</v>
@@ -4628,7 +4646,7 @@
         <v>30.0</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J81" s="16" t="s">
         <v>18</v>
@@ -4636,16 +4654,16 @@
     </row>
     <row r="82">
       <c r="A82" s="5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>14</v>
@@ -4660,7 +4678,7 @@
         <v>30.0</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J82" s="10" t="s">
         <v>18</v>
@@ -4668,13 +4686,13 @@
     </row>
     <row r="83">
       <c r="A83" s="11" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B83" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D83" s="12" t="s">
         <v>13</v>
@@ -4692,7 +4710,7 @@
         <v>30.0</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J83" s="16" t="s">
         <v>18</v>
@@ -4700,13 +4718,13 @@
     </row>
     <row r="84">
       <c r="A84" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>21</v>
@@ -4724,7 +4742,7 @@
         <v>30.0</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J84" s="10" t="s">
         <v>18</v>
@@ -4732,16 +4750,16 @@
     </row>
     <row r="85">
       <c r="A85" s="11" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B85" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E85" s="13" t="s">
         <v>14</v>
@@ -4756,7 +4774,7 @@
         <v>30.0</v>
       </c>
       <c r="I85" s="14" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J85" s="16" t="s">
         <v>18</v>
@@ -4764,16 +4782,16 @@
     </row>
     <row r="86">
       <c r="A86" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>14</v>
@@ -4796,16 +4814,16 @@
     </row>
     <row r="87">
       <c r="A87" s="11" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B87" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>14</v>
@@ -4820,7 +4838,7 @@
         <v>30.0</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J87" s="16" t="s">
         <v>18</v>
@@ -4828,16 +4846,16 @@
     </row>
     <row r="88">
       <c r="A88" s="5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>14</v>
@@ -4852,7 +4870,7 @@
         <v>30.0</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J88" s="10" t="s">
         <v>18</v>
@@ -4860,16 +4878,16 @@
     </row>
     <row r="89">
       <c r="A89" s="11" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B89" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E89" s="13" t="s">
         <v>14</v>
@@ -4884,7 +4902,7 @@
         <v>30.0</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J89" s="16" t="s">
         <v>18</v>
@@ -4892,16 +4910,16 @@
     </row>
     <row r="90">
       <c r="A90" s="5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>14</v>
@@ -4916,7 +4934,7 @@
         <v>30.0</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J90" s="10" t="s">
         <v>18</v>
@@ -4924,16 +4942,16 @@
     </row>
     <row r="91">
       <c r="A91" s="11" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B91" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E91" s="13" t="s">
         <v>14</v>
@@ -4948,7 +4966,7 @@
         <v>30.0</v>
       </c>
       <c r="I91" s="14" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J91" s="16" t="s">
         <v>18</v>
@@ -4956,13 +4974,13 @@
     </row>
     <row r="92">
       <c r="A92" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>13</v>
@@ -4980,7 +4998,7 @@
         <v>30.0</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J92" s="10" t="s">
         <v>18</v>
@@ -4988,13 +5006,13 @@
     </row>
     <row r="93">
       <c r="A93" s="11" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>21</v>
@@ -5020,16 +5038,16 @@
     </row>
     <row r="94">
       <c r="A94" s="5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>14</v>
@@ -5044,7 +5062,7 @@
         <v>30.0</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J94" s="10" t="s">
         <v>18</v>
@@ -5052,16 +5070,16 @@
     </row>
     <row r="95">
       <c r="A95" s="11" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B95" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E95" s="13" t="s">
         <v>14</v>
@@ -5076,7 +5094,7 @@
         <v>30.0</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J95" s="16" t="s">
         <v>18</v>
@@ -5084,31 +5102,31 @@
     </row>
     <row r="96">
       <c r="A96" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D96" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="I96" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H96" s="8">
-        <v>30.0</v>
-      </c>
-      <c r="I96" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="J96" s="10" t="s">
         <v>18</v>
@@ -5116,16 +5134,16 @@
     </row>
     <row r="97">
       <c r="A97" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B97" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>136</v>
-      </c>
       <c r="D97" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E97" s="13" t="s">
         <v>14</v>
@@ -5140,7 +5158,7 @@
         <v>30.0</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J97" s="16" t="s">
         <v>18</v>
@@ -5148,16 +5166,16 @@
     </row>
     <row r="98">
       <c r="A98" s="5" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>14</v>
@@ -5172,7 +5190,7 @@
         <v>30.0</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J98" s="10" t="s">
         <v>18</v>
@@ -5180,16 +5198,16 @@
     </row>
     <row r="99">
       <c r="A99" s="11" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B99" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E99" s="13" t="s">
         <v>14</v>
@@ -5204,7 +5222,7 @@
         <v>30.0</v>
       </c>
       <c r="I99" s="14" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J99" s="16" t="s">
         <v>18</v>
@@ -5212,16 +5230,16 @@
     </row>
     <row r="100">
       <c r="A100" s="5" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>14</v>
@@ -5244,13 +5262,13 @@
     </row>
     <row r="101">
       <c r="A101" s="11" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B101" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>13</v>
@@ -5268,7 +5286,7 @@
         <v>30.0</v>
       </c>
       <c r="I101" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J101" s="16" t="s">
         <v>18</v>
@@ -5276,13 +5294,13 @@
     </row>
     <row r="102">
       <c r="A102" s="5" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>21</v>
@@ -5300,7 +5318,7 @@
         <v>30.0</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J102" s="10" t="s">
         <v>18</v>
@@ -5308,16 +5326,16 @@
     </row>
     <row r="103">
       <c r="A103" s="11" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B103" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E103" s="13" t="s">
         <v>14</v>
@@ -5332,7 +5350,7 @@
         <v>30.0</v>
       </c>
       <c r="I103" s="14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J103" s="16" t="s">
         <v>18</v>
@@ -5340,16 +5358,16 @@
     </row>
     <row r="104">
       <c r="A104" s="5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>14</v>
@@ -5364,7 +5382,7 @@
         <v>30.0</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J104" s="10" t="s">
         <v>18</v>
@@ -5372,16 +5390,16 @@
     </row>
     <row r="105">
       <c r="A105" s="11" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B105" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E105" s="13" t="s">
         <v>14</v>
@@ -5396,7 +5414,7 @@
         <v>30.0</v>
       </c>
       <c r="I105" s="14" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J105" s="16" t="s">
         <v>18</v>
@@ -5404,16 +5422,16 @@
     </row>
     <row r="106">
       <c r="A106" s="5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>14</v>
@@ -5428,7 +5446,7 @@
         <v>30.0</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J106" s="10" t="s">
         <v>18</v>
@@ -5436,16 +5454,16 @@
     </row>
     <row r="107">
       <c r="A107" s="11" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B107" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E107" s="13" t="s">
         <v>14</v>
@@ -5468,16 +5486,16 @@
     </row>
     <row r="108">
       <c r="A108" s="5" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>14</v>
@@ -5492,7 +5510,7 @@
         <v>30.0</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J108" s="10" t="s">
         <v>18</v>
@@ -5500,16 +5518,16 @@
     </row>
     <row r="109">
       <c r="A109" s="11" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B109" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E109" s="13" t="s">
         <v>14</v>
@@ -5524,7 +5542,7 @@
         <v>30.0</v>
       </c>
       <c r="I109" s="14" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J109" s="16" t="s">
         <v>18</v>
@@ -5532,13 +5550,13 @@
     </row>
     <row r="110">
       <c r="A110" s="5" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>13</v>
@@ -5556,7 +5574,7 @@
         <v>30.0</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J110" s="10" t="s">
         <v>18</v>
@@ -5564,13 +5582,13 @@
     </row>
     <row r="111">
       <c r="A111" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B111" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D111" s="12" t="s">
         <v>21</v>
@@ -5588,7 +5606,7 @@
         <v>30.0</v>
       </c>
       <c r="I111" s="14" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J111" s="16" t="s">
         <v>18</v>
@@ -5596,16 +5614,16 @@
     </row>
     <row r="112">
       <c r="A112" s="5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>14</v>
@@ -5620,7 +5638,7 @@
         <v>30.0</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J112" s="10" t="s">
         <v>18</v>
@@ -5628,16 +5646,16 @@
     </row>
     <row r="113">
       <c r="A113" s="11" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B113" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E113" s="13" t="s">
         <v>14</v>
@@ -5652,7 +5670,7 @@
         <v>30.0</v>
       </c>
       <c r="I113" s="14" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J113" s="16" t="s">
         <v>18</v>
@@ -5660,16 +5678,16 @@
     </row>
     <row r="114">
       <c r="A114" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>14</v>
@@ -5692,16 +5710,16 @@
     </row>
     <row r="115">
       <c r="A115" s="11" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B115" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E115" s="13" t="s">
         <v>14</v>
@@ -5716,7 +5734,7 @@
         <v>30.0</v>
       </c>
       <c r="I115" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J115" s="16" t="s">
         <v>18</v>
@@ -5724,16 +5742,16 @@
     </row>
     <row r="116">
       <c r="A116" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>14</v>
@@ -5748,7 +5766,7 @@
         <v>30.0</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J116" s="10" t="s">
         <v>18</v>
@@ -5756,16 +5774,16 @@
     </row>
     <row r="117">
       <c r="A117" s="11" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B117" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E117" s="13" t="s">
         <v>14</v>
@@ -5780,7 +5798,7 @@
         <v>30.0</v>
       </c>
       <c r="I117" s="14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J117" s="16" t="s">
         <v>18</v>
@@ -5788,16 +5806,16 @@
     </row>
     <row r="118">
       <c r="A118" s="5" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E118" s="7" t="s">
         <v>14</v>
@@ -5812,7 +5830,7 @@
         <v>30.0</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J118" s="10" t="s">
         <v>18</v>
@@ -5820,13 +5838,13 @@
     </row>
     <row r="119">
       <c r="A119" s="11" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B119" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>13</v>
@@ -5844,7 +5862,7 @@
         <v>30.0</v>
       </c>
       <c r="I119" s="14" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J119" s="16" t="s">
         <v>18</v>
@@ -5852,13 +5870,13 @@
     </row>
     <row r="120">
       <c r="A120" s="5" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>21</v>
@@ -5876,7 +5894,7 @@
         <v>30.0</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J120" s="10" t="s">
         <v>18</v>
@@ -5884,16 +5902,16 @@
     </row>
     <row r="121">
       <c r="A121" s="11" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B121" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E121" s="13" t="s">
         <v>14</v>
@@ -5916,16 +5934,16 @@
     </row>
     <row r="122">
       <c r="A122" s="5" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>14</v>
@@ -5940,7 +5958,7 @@
         <v>30.0</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J122" s="10" t="s">
         <v>18</v>
@@ -5948,16 +5966,16 @@
     </row>
     <row r="123">
       <c r="A123" s="11" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B123" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E123" s="13" t="s">
         <v>14</v>
@@ -5972,7 +5990,7 @@
         <v>30.0</v>
       </c>
       <c r="I123" s="14" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J123" s="16" t="s">
         <v>18</v>
@@ -5980,16 +5998,16 @@
     </row>
     <row r="124">
       <c r="A124" s="5" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>14</v>
@@ -6004,7 +6022,7 @@
         <v>30.0</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J124" s="10" t="s">
         <v>18</v>
@@ -6012,16 +6030,16 @@
     </row>
     <row r="125">
       <c r="A125" s="11" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B125" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E125" s="13" t="s">
         <v>14</v>
@@ -6036,7 +6054,7 @@
         <v>30.0</v>
       </c>
       <c r="I125" s="14" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J125" s="16" t="s">
         <v>18</v>
@@ -6044,16 +6062,16 @@
     </row>
     <row r="126">
       <c r="A126" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>14</v>
@@ -6068,7 +6086,7 @@
         <v>30.0</v>
       </c>
       <c r="I126" s="8" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J126" s="10" t="s">
         <v>18</v>
@@ -6076,31 +6094,31 @@
     </row>
     <row r="127">
       <c r="A127" s="11" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B127" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D127" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H127" s="14">
+        <v>30.0</v>
+      </c>
+      <c r="I127" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="E127" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F127" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G127" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H127" s="14">
-        <v>30.0</v>
-      </c>
-      <c r="I127" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="J127" s="16" t="s">
         <v>18</v>
@@ -6108,13 +6126,13 @@
     </row>
     <row r="128">
       <c r="A128" s="5" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>13</v>
@@ -6140,13 +6158,13 @@
     </row>
     <row r="129">
       <c r="A129" s="11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B129" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D129" s="12" t="s">
         <v>21</v>
@@ -6164,7 +6182,7 @@
         <v>30.0</v>
       </c>
       <c r="I129" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J129" s="16" t="s">
         <v>18</v>
@@ -6172,16 +6190,16 @@
     </row>
     <row r="130">
       <c r="A130" s="5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>14</v>
@@ -6196,7 +6214,7 @@
         <v>30.0</v>
       </c>
       <c r="I130" s="8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J130" s="10" t="s">
         <v>18</v>
@@ -6204,16 +6222,16 @@
     </row>
     <row r="131">
       <c r="A131" s="11" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B131" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E131" s="13" t="s">
         <v>14</v>
@@ -6228,7 +6246,7 @@
         <v>30.0</v>
       </c>
       <c r="I131" s="14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J131" s="16" t="s">
         <v>18</v>
@@ -6236,16 +6254,16 @@
     </row>
     <row r="132">
       <c r="A132" s="5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>14</v>
@@ -6260,7 +6278,7 @@
         <v>30.0</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J132" s="10" t="s">
         <v>18</v>
@@ -6268,16 +6286,16 @@
     </row>
     <row r="133">
       <c r="A133" s="11" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B133" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E133" s="13" t="s">
         <v>14</v>
@@ -6292,7 +6310,7 @@
         <v>30.0</v>
       </c>
       <c r="I133" s="14" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J133" s="16" t="s">
         <v>18</v>
@@ -6300,16 +6318,16 @@
     </row>
     <row r="134">
       <c r="A134" s="5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E134" s="7" t="s">
         <v>14</v>
@@ -6324,7 +6342,7 @@
         <v>30.0</v>
       </c>
       <c r="I134" s="8" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J134" s="10" t="s">
         <v>18</v>
@@ -6332,16 +6350,16 @@
     </row>
     <row r="135">
       <c r="A135" s="11" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B135" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E135" s="13" t="s">
         <v>14</v>
@@ -6364,16 +6382,16 @@
     </row>
     <row r="136">
       <c r="A136" s="5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>14</v>
@@ -6388,7 +6406,7 @@
         <v>30.0</v>
       </c>
       <c r="I136" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J136" s="10" t="s">
         <v>18</v>
@@ -6396,13 +6414,13 @@
     </row>
     <row r="137">
       <c r="A137" s="11" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B137" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D137" s="12" t="s">
         <v>13</v>
@@ -6420,7 +6438,7 @@
         <v>30.0</v>
       </c>
       <c r="I137" s="14" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J137" s="16" t="s">
         <v>18</v>
@@ -6428,13 +6446,13 @@
     </row>
     <row r="138">
       <c r="A138" s="5" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>21</v>
@@ -6452,7 +6470,7 @@
         <v>30.0</v>
       </c>
       <c r="I138" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J138" s="10" t="s">
         <v>18</v>
@@ -6460,16 +6478,16 @@
     </row>
     <row r="139">
       <c r="A139" s="11" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B139" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E139" s="13" t="s">
         <v>14</v>
@@ -6484,7 +6502,7 @@
         <v>30.0</v>
       </c>
       <c r="I139" s="14" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J139" s="16" t="s">
         <v>18</v>
@@ -6492,16 +6510,16 @@
     </row>
     <row r="140">
       <c r="A140" s="5" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>14</v>
@@ -6516,7 +6534,7 @@
         <v>30.0</v>
       </c>
       <c r="I140" s="8" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J140" s="10" t="s">
         <v>18</v>
@@ -6524,16 +6542,16 @@
     </row>
     <row r="141">
       <c r="A141" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B141" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>179</v>
-      </c>
       <c r="D141" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E141" s="13" t="s">
         <v>14</v>
@@ -6548,7 +6566,7 @@
         <v>30.0</v>
       </c>
       <c r="I141" s="14" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J141" s="16" t="s">
         <v>18</v>
@@ -6556,16 +6574,16 @@
     </row>
     <row r="142">
       <c r="A142" s="5" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E142" s="7" t="s">
         <v>14</v>
@@ -6588,16 +6606,16 @@
     </row>
     <row r="143">
       <c r="A143" s="11" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B143" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E143" s="13" t="s">
         <v>14</v>
@@ -6612,7 +6630,7 @@
         <v>30.0</v>
       </c>
       <c r="I143" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J143" s="16" t="s">
         <v>18</v>
@@ -6620,16 +6638,16 @@
     </row>
     <row r="144">
       <c r="A144" s="5" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E144" s="7" t="s">
         <v>14</v>
@@ -6644,7 +6662,7 @@
         <v>30.0</v>
       </c>
       <c r="I144" s="8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J144" s="10" t="s">
         <v>18</v>
@@ -6652,16 +6670,16 @@
     </row>
     <row r="145">
       <c r="A145" s="11" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B145" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E145" s="13" t="s">
         <v>14</v>
@@ -6676,7 +6694,7 @@
         <v>30.0</v>
       </c>
       <c r="I145" s="14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J145" s="16" t="s">
         <v>18</v>
@@ -6684,13 +6702,13 @@
     </row>
     <row r="146">
       <c r="A146" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>13</v>
@@ -6708,7 +6726,7 @@
         <v>30.0</v>
       </c>
       <c r="I146" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J146" s="10" t="s">
         <v>18</v>
@@ -6716,13 +6734,13 @@
     </row>
     <row r="147">
       <c r="A147" s="11" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B147" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D147" s="12" t="s">
         <v>21</v>
@@ -6740,7 +6758,7 @@
         <v>30.0</v>
       </c>
       <c r="I147" s="14" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J147" s="16" t="s">
         <v>18</v>
@@ -6748,16 +6766,16 @@
     </row>
     <row r="148">
       <c r="A148" s="5" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E148" s="7" t="s">
         <v>14</v>
@@ -6772,7 +6790,7 @@
         <v>30.0</v>
       </c>
       <c r="I148" s="8" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J148" s="10" t="s">
         <v>18</v>
@@ -6780,16 +6798,16 @@
     </row>
     <row r="149">
       <c r="A149" s="11" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B149" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E149" s="13" t="s">
         <v>14</v>
@@ -6812,16 +6830,16 @@
     </row>
     <row r="150">
       <c r="A150" s="5" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E150" s="7" t="s">
         <v>14</v>
@@ -6836,7 +6854,7 @@
         <v>30.0</v>
       </c>
       <c r="I150" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J150" s="10" t="s">
         <v>18</v>
@@ -6844,16 +6862,16 @@
     </row>
     <row r="151">
       <c r="A151" s="11" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B151" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E151" s="13" t="s">
         <v>14</v>
@@ -6868,7 +6886,7 @@
         <v>30.0</v>
       </c>
       <c r="I151" s="14" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J151" s="16" t="s">
         <v>18</v>
@@ -6876,16 +6894,16 @@
     </row>
     <row r="152">
       <c r="A152" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E152" s="7" t="s">
         <v>14</v>
@@ -6900,7 +6918,7 @@
         <v>30.0</v>
       </c>
       <c r="I152" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J152" s="10" t="s">
         <v>18</v>
@@ -6908,16 +6926,16 @@
     </row>
     <row r="153">
       <c r="A153" s="11" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B153" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E153" s="13" t="s">
         <v>14</v>
@@ -6932,7 +6950,7 @@
         <v>30.0</v>
       </c>
       <c r="I153" s="14" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J153" s="16" t="s">
         <v>18</v>
@@ -6940,16 +6958,16 @@
     </row>
     <row r="154">
       <c r="A154" s="5" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E154" s="7" t="s">
         <v>14</v>
@@ -6964,7 +6982,7 @@
         <v>30.0</v>
       </c>
       <c r="I154" s="8" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J154" s="10" t="s">
         <v>18</v>
@@ -6972,13 +6990,13 @@
     </row>
     <row r="155">
       <c r="A155" s="11" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B155" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D155" s="12" t="s">
         <v>13</v>
@@ -6996,7 +7014,7 @@
         <v>30.0</v>
       </c>
       <c r="I155" s="14" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J155" s="16" t="s">
         <v>18</v>
@@ -7004,13 +7022,13 @@
     </row>
     <row r="156">
       <c r="A156" s="5" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>21</v>
@@ -7036,16 +7054,16 @@
     </row>
     <row r="157">
       <c r="A157" s="11" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B157" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E157" s="13" t="s">
         <v>14</v>
@@ -7060,7 +7078,7 @@
         <v>30.0</v>
       </c>
       <c r="I157" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J157" s="16" t="s">
         <v>18</v>
@@ -7068,16 +7086,16 @@
     </row>
     <row r="158">
       <c r="A158" s="5" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E158" s="7" t="s">
         <v>14</v>
@@ -7092,7 +7110,7 @@
         <v>30.0</v>
       </c>
       <c r="I158" s="8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J158" s="10" t="s">
         <v>18</v>
@@ -7100,31 +7118,31 @@
     </row>
     <row r="159">
       <c r="A159" s="11" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B159" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D159" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E159" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G159" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H159" s="14">
+        <v>30.0</v>
+      </c>
+      <c r="I159" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="E159" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F159" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G159" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H159" s="14">
-        <v>30.0</v>
-      </c>
-      <c r="I159" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="J159" s="16" t="s">
         <v>18</v>
@@ -7132,16 +7150,16 @@
     </row>
     <row r="160">
       <c r="A160" s="5" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E160" s="7" t="s">
         <v>14</v>
@@ -7156,7 +7174,7 @@
         <v>30.0</v>
       </c>
       <c r="I160" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J160" s="10" t="s">
         <v>18</v>
@@ -7164,16 +7182,16 @@
     </row>
     <row r="161">
       <c r="A161" s="11" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B161" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E161" s="13" t="s">
         <v>14</v>
@@ -7188,7 +7206,7 @@
         <v>30.0</v>
       </c>
       <c r="I161" s="14" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J161" s="16" t="s">
         <v>18</v>
@@ -7196,16 +7214,16 @@
     </row>
     <row r="162">
       <c r="A162" s="5" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E162" s="7" t="s">
         <v>14</v>
@@ -7220,7 +7238,7 @@
         <v>30.0</v>
       </c>
       <c r="I162" s="8" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J162" s="10" t="s">
         <v>18</v>
@@ -7228,16 +7246,16 @@
     </row>
     <row r="163">
       <c r="A163" s="11" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B163" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E163" s="13" t="s">
         <v>14</v>
@@ -7260,13 +7278,13 @@
     </row>
     <row r="164">
       <c r="A164" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>13</v>
@@ -7284,7 +7302,7 @@
         <v>30.0</v>
       </c>
       <c r="I164" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J164" s="10" t="s">
         <v>18</v>
@@ -7292,13 +7310,13 @@
     </row>
     <row r="165">
       <c r="A165" s="11" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B165" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D165" s="12" t="s">
         <v>21</v>
@@ -7316,7 +7334,7 @@
         <v>30.0</v>
       </c>
       <c r="I165" s="14" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J165" s="16" t="s">
         <v>18</v>
@@ -7324,16 +7342,16 @@
     </row>
     <row r="166">
       <c r="A166" s="5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E166" s="7" t="s">
         <v>14</v>
@@ -7348,7 +7366,7 @@
         <v>30.0</v>
       </c>
       <c r="I166" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J166" s="10" t="s">
         <v>18</v>
@@ -7356,16 +7374,16 @@
     </row>
     <row r="167">
       <c r="A167" s="11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B167" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E167" s="13" t="s">
         <v>14</v>
@@ -7380,7 +7398,7 @@
         <v>30.0</v>
       </c>
       <c r="I167" s="14" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J167" s="16" t="s">
         <v>18</v>
@@ -7388,16 +7406,16 @@
     </row>
     <row r="168">
       <c r="A168" s="5" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E168" s="7" t="s">
         <v>14</v>
@@ -7412,7 +7430,7 @@
         <v>30.0</v>
       </c>
       <c r="I168" s="8" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J168" s="10" t="s">
         <v>18</v>
@@ -7420,16 +7438,16 @@
     </row>
     <row r="169">
       <c r="A169" s="11" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B169" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E169" s="13" t="s">
         <v>14</v>
@@ -7444,7 +7462,7 @@
         <v>30.0</v>
       </c>
       <c r="I169" s="14" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J169" s="16" t="s">
         <v>18</v>
@@ -7452,16 +7470,16 @@
     </row>
     <row r="170">
       <c r="A170" s="5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E170" s="7" t="s">
         <v>14</v>
@@ -7484,16 +7502,16 @@
     </row>
     <row r="171">
       <c r="A171" s="11" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B171" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E171" s="13" t="s">
         <v>14</v>
@@ -7508,7 +7526,7 @@
         <v>30.0</v>
       </c>
       <c r="I171" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J171" s="16" t="s">
         <v>18</v>
@@ -7516,16 +7534,16 @@
     </row>
     <row r="172">
       <c r="A172" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E172" s="7" t="s">
         <v>14</v>
@@ -7540,7 +7558,7 @@
         <v>30.0</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J172" s="10" t="s">
         <v>18</v>
@@ -7548,13 +7566,13 @@
     </row>
     <row r="173">
       <c r="A173" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B173" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D173" s="12" t="s">
         <v>13</v>
@@ -7572,7 +7590,7 @@
         <v>30.0</v>
       </c>
       <c r="I173" s="14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J173" s="16" t="s">
         <v>18</v>
@@ -7580,13 +7598,13 @@
     </row>
     <row r="174">
       <c r="A174" s="5" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>21</v>
@@ -7604,24 +7622,24 @@
         <v>30.0</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J174" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="11" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B175" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E175" s="13" t="s">
         <v>14</v>
@@ -7636,24 +7654,24 @@
         <v>30.0</v>
       </c>
       <c r="I175" s="14" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J175" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E176" s="7" t="s">
         <v>14</v>
@@ -7668,24 +7686,24 @@
         <v>30.0</v>
       </c>
       <c r="I176" s="8" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J176" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="11" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B177" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E177" s="13" t="s">
         <v>14</v>
@@ -7703,21 +7721,21 @@
         <v>17</v>
       </c>
       <c r="J177" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="5" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E178" s="7" t="s">
         <v>14</v>
@@ -7732,24 +7750,24 @@
         <v>30.0</v>
       </c>
       <c r="I178" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J178" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B179" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C179" s="12" t="s">
-        <v>216</v>
-      </c>
       <c r="D179" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E179" s="13" t="s">
         <v>14</v>
@@ -7764,24 +7782,24 @@
         <v>30.0</v>
       </c>
       <c r="I179" s="14" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J179" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="5" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E180" s="7" t="s">
         <v>14</v>
@@ -7796,24 +7814,24 @@
         <v>30.0</v>
       </c>
       <c r="I180" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J180" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="11" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B181" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E181" s="13" t="s">
         <v>14</v>
@@ -7828,21 +7846,21 @@
         <v>30.0</v>
       </c>
       <c r="I181" s="14" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J181" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="5" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>13</v>
@@ -7860,21 +7878,21 @@
         <v>30.0</v>
       </c>
       <c r="I182" s="8" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J182" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="11" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B183" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D183" s="12" t="s">
         <v>21</v>
@@ -7892,24 +7910,24 @@
         <v>30.0</v>
       </c>
       <c r="I183" s="14" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J183" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="5" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E184" s="7" t="s">
         <v>14</v>
@@ -7927,21 +7945,21 @@
         <v>17</v>
       </c>
       <c r="J184" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="11" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B185" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E185" s="13" t="s">
         <v>14</v>
@@ -7956,24 +7974,24 @@
         <v>30.0</v>
       </c>
       <c r="I185" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J185" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="5" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E186" s="7" t="s">
         <v>14</v>
@@ -7988,24 +8006,24 @@
         <v>30.0</v>
       </c>
       <c r="I186" s="8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J186" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="11" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B187" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E187" s="13" t="s">
         <v>14</v>
@@ -8020,24 +8038,24 @@
         <v>30.0</v>
       </c>
       <c r="I187" s="14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J187" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="5" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E188" s="7" t="s">
         <v>14</v>
@@ -8052,24 +8070,24 @@
         <v>30.0</v>
       </c>
       <c r="I188" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J188" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="11" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B189" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E189" s="13" t="s">
         <v>14</v>
@@ -8084,53 +8102,53 @@
         <v>30.0</v>
       </c>
       <c r="I189" s="14" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J189" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="5" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D190" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F190" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G190" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H190" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="I190" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E190" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F190" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G190" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H190" s="8">
-        <v>30.0</v>
-      </c>
-      <c r="I190" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="J190" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="11" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B191" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D191" s="12" t="s">
         <v>13</v>
@@ -8151,18 +8169,18 @@
         <v>17</v>
       </c>
       <c r="J191" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="5" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D192" s="6" t="s">
         <v>21</v>
@@ -8180,24 +8198,24 @@
         <v>30.0</v>
       </c>
       <c r="I192" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J192" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="11" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B193" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D193" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E193" s="13" t="s">
         <v>14</v>
@@ -8212,24 +8230,24 @@
         <v>30.0</v>
       </c>
       <c r="I193" s="14" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J193" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="5" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E194" s="7" t="s">
         <v>14</v>
@@ -8244,24 +8262,24 @@
         <v>30.0</v>
       </c>
       <c r="I194" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J194" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B195" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E195" s="13" t="s">
         <v>14</v>
@@ -8276,24 +8294,24 @@
         <v>30.0</v>
       </c>
       <c r="I195" s="14" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J195" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="5" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E196" s="7" t="s">
         <v>14</v>
@@ -8308,24 +8326,24 @@
         <v>30.0</v>
       </c>
       <c r="I196" s="8" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J196" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="11" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B197" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D197" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E197" s="13" t="s">
         <v>14</v>
@@ -8340,24 +8358,24 @@
         <v>30.0</v>
       </c>
       <c r="I197" s="14" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J197" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="5" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E198" s="7" t="s">
         <v>14</v>
@@ -8375,21 +8393,21 @@
         <v>17</v>
       </c>
       <c r="J198" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="11" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B199" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D199" s="12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E199" s="13" t="s">
         <v>14</v>
@@ -8404,21 +8422,21 @@
         <v>30.0</v>
       </c>
       <c r="I199" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J199" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="5" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>13</v>
@@ -8436,21 +8454,21 @@
         <v>30.0</v>
       </c>
       <c r="I200" s="8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J200" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="11" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B201" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D201" s="12" t="s">
         <v>21</v>
@@ -8468,24 +8486,24 @@
         <v>30.0</v>
       </c>
       <c r="I201" s="14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J201" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E202" s="7" t="s">
         <v>14</v>
@@ -8500,24 +8518,24 @@
         <v>30.0</v>
       </c>
       <c r="I202" s="8" t="s">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="J202" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="11" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B203" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D203" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E203" s="13" t="s">
         <v>14</v>
@@ -8532,24 +8550,24 @@
         <v>30.0</v>
       </c>
       <c r="I203" s="14" t="s">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="J203" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E204" s="7" t="s">
         <v>14</v>
@@ -8564,24 +8582,24 @@
         <v>30.0</v>
       </c>
       <c r="I204" s="8" t="s">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="J204" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="11" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B205" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D205" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E205" s="13" t="s">
         <v>14</v>
@@ -8596,24 +8614,24 @@
         <v>30.0</v>
       </c>
       <c r="I205" s="14" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="J205" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="5" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E206" s="7" t="s">
         <v>14</v>
@@ -8628,24 +8646,24 @@
         <v>30.0</v>
       </c>
       <c r="I206" s="8" t="s">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="J206" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="11" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B207" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D207" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E207" s="13" t="s">
         <v>14</v>
@@ -8660,24 +8678,24 @@
         <v>30.0</v>
       </c>
       <c r="I207" s="14" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="J207" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="5" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E208" s="7" t="s">
         <v>14</v>
@@ -8692,21 +8710,21 @@
         <v>30.0</v>
       </c>
       <c r="I208" s="8" t="s">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="J208" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="11" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B209" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D209" s="12" t="s">
         <v>13</v>
@@ -8724,21 +8742,21 @@
         <v>30.0</v>
       </c>
       <c r="I209" s="14" t="s">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="J209" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="5" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>21</v>
@@ -8756,24 +8774,24 @@
         <v>30.0</v>
       </c>
       <c r="I210" s="8" t="s">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="J210" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="11" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B211" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D211" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E211" s="13" t="s">
         <v>14</v>
@@ -8788,24 +8806,24 @@
         <v>30.0</v>
       </c>
       <c r="I211" s="14" t="s">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="J211" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="5" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E212" s="7" t="s">
         <v>14</v>
@@ -8820,24 +8838,24 @@
         <v>30.0</v>
       </c>
       <c r="I212" s="8" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="J212" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="11" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B213" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D213" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E213" s="13" t="s">
         <v>14</v>
@@ -8852,24 +8870,24 @@
         <v>30.0</v>
       </c>
       <c r="I213" s="14" t="s">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="J213" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="5" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B214" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E214" s="7" t="s">
         <v>14</v>
@@ -8884,24 +8902,24 @@
         <v>30.0</v>
       </c>
       <c r="I214" s="8" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="J214" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="11" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B215" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E215" s="13" t="s">
         <v>14</v>
@@ -8916,24 +8934,24 @@
         <v>30.0</v>
       </c>
       <c r="I215" s="14" t="s">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="J215" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B216" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E216" s="7" t="s">
         <v>14</v>
@@ -8948,24 +8966,24 @@
         <v>30.0</v>
       </c>
       <c r="I216" s="8" t="s">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="J216" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="11" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B217" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E217" s="13" t="s">
         <v>14</v>
@@ -8980,21 +8998,21 @@
         <v>30.0</v>
       </c>
       <c r="I217" s="14" t="s">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="J217" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="5" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D218" s="6" t="s">
         <v>13</v>
@@ -9012,21 +9030,21 @@
         <v>30.0</v>
       </c>
       <c r="I218" s="8" t="s">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="J218" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="11" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B219" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D219" s="12" t="s">
         <v>21</v>
@@ -9044,15 +9062,15 @@
         <v>30.0</v>
       </c>
       <c r="I219" s="14" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="J219" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="5" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>11</v>
@@ -9061,7 +9079,7 @@
         <v>12</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E220" s="7" t="s">
         <v>14</v>
@@ -9076,24 +9094,24 @@
         <v>30.0</v>
       </c>
       <c r="I220" s="8" t="s">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="J220" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="11" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B221" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D221" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E221" s="13" t="s">
         <v>14</v>
@@ -9108,56 +9126,56 @@
         <v>30.0</v>
       </c>
       <c r="I221" s="14" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="J221" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="5" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D222" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E222" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F222" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G222" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H222" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="I222" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E222" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F222" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G222" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H222" s="8">
-        <v>30.0</v>
-      </c>
-      <c r="I222" s="8" t="s">
-        <v>252</v>
-      </c>
       <c r="J222" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="11" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B223" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D223" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E223" s="13" t="s">
         <v>14</v>
@@ -9172,24 +9190,24 @@
         <v>30.0</v>
       </c>
       <c r="I223" s="14" t="s">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="J223" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="5" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E224" s="7" t="s">
         <v>14</v>
@@ -9204,24 +9222,24 @@
         <v>30.0</v>
       </c>
       <c r="I224" s="8" t="s">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="J224" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="11" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B225" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D225" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E225" s="13" t="s">
         <v>14</v>
@@ -9236,24 +9254,24 @@
         <v>30.0</v>
       </c>
       <c r="I225" s="14" t="s">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="J225" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="5" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E226" s="7" t="s">
         <v>14</v>
@@ -9268,21 +9286,21 @@
         <v>30.0</v>
       </c>
       <c r="I226" s="8" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="J226" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="11" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B227" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D227" s="12" t="s">
         <v>13</v>
@@ -9300,21 +9318,21 @@
         <v>30.0</v>
       </c>
       <c r="I227" s="14" t="s">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="J227" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="5" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D228" s="6" t="s">
         <v>21</v>
@@ -9332,24 +9350,24 @@
         <v>30.0</v>
       </c>
       <c r="I228" s="8" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="J228" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="11" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B229" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D229" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E229" s="13" t="s">
         <v>14</v>
@@ -9364,24 +9382,24 @@
         <v>30.0</v>
       </c>
       <c r="I229" s="14" t="s">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="J229" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="5" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B230" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E230" s="7" t="s">
         <v>14</v>
@@ -9396,24 +9414,24 @@
         <v>30.0</v>
       </c>
       <c r="I230" s="8" t="s">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="J230" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="11" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B231" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D231" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E231" s="13" t="s">
         <v>14</v>
@@ -9428,24 +9446,24 @@
         <v>30.0</v>
       </c>
       <c r="I231" s="14" t="s">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="J231" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="5" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E232" s="7" t="s">
         <v>14</v>
@@ -9460,24 +9478,24 @@
         <v>30.0</v>
       </c>
       <c r="I232" s="8" t="s">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="J232" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="11" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B233" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D233" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E233" s="13" t="s">
         <v>14</v>
@@ -9492,24 +9510,24 @@
         <v>30.0</v>
       </c>
       <c r="I233" s="14" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="J233" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="5" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B234" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E234" s="7" t="s">
         <v>14</v>
@@ -9524,24 +9542,24 @@
         <v>30.0</v>
       </c>
       <c r="I234" s="8" t="s">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="J234" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="11" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B235" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D235" s="12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E235" s="13" t="s">
         <v>14</v>
@@ -9556,21 +9574,21 @@
         <v>30.0</v>
       </c>
       <c r="I235" s="14" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="J235" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="5" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B236" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D236" s="6" t="s">
         <v>13</v>
@@ -9588,21 +9606,21 @@
         <v>30.0</v>
       </c>
       <c r="I236" s="8" t="s">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="J236" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="11" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B237" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D237" s="12" t="s">
         <v>21</v>
@@ -9620,24 +9638,24 @@
         <v>30.0</v>
       </c>
       <c r="I237" s="14" t="s">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="J237" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="5" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E238" s="7" t="s">
         <v>14</v>
@@ -9652,24 +9670,24 @@
         <v>30.0</v>
       </c>
       <c r="I238" s="8" t="s">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="J238" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="11" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B239" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D239" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E239" s="13" t="s">
         <v>14</v>
@@ -9684,24 +9702,24 @@
         <v>30.0</v>
       </c>
       <c r="I239" s="14" t="s">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="J239" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="5" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B240" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E240" s="7" t="s">
         <v>14</v>
@@ -9716,24 +9734,24 @@
         <v>30.0</v>
       </c>
       <c r="I240" s="8" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="J240" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="11" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B241" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D241" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E241" s="13" t="s">
         <v>14</v>
@@ -9748,24 +9766,24 @@
         <v>30.0</v>
       </c>
       <c r="I241" s="14" t="s">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="J241" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="5" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B242" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E242" s="7" t="s">
         <v>14</v>
@@ -9780,24 +9798,24 @@
         <v>30.0</v>
       </c>
       <c r="I242" s="8" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="J242" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="11" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B243" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D243" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E243" s="13" t="s">
         <v>14</v>
@@ -9812,24 +9830,24 @@
         <v>30.0</v>
       </c>
       <c r="I243" s="14" t="s">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="J243" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="5" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B244" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E244" s="7" t="s">
         <v>14</v>
@@ -9844,21 +9862,21 @@
         <v>30.0</v>
       </c>
       <c r="I244" s="8" t="s">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="J244" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="11" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B245" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D245" s="12" t="s">
         <v>13</v>
@@ -9876,21 +9894,21 @@
         <v>30.0</v>
       </c>
       <c r="I245" s="14" t="s">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="J245" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="5" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>21</v>
@@ -9908,24 +9926,24 @@
         <v>30.0</v>
       </c>
       <c r="I246" s="8" t="s">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="J246" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="11" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B247" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E247" s="13" t="s">
         <v>14</v>
@@ -9940,24 +9958,24 @@
         <v>30.0</v>
       </c>
       <c r="I247" s="14" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="J247" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="5" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B248" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E248" s="7" t="s">
         <v>14</v>
@@ -9972,24 +9990,24 @@
         <v>30.0</v>
       </c>
       <c r="I248" s="8" t="s">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="J248" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="11" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B249" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E249" s="13" t="s">
         <v>14</v>
@@ -10004,24 +10022,24 @@
         <v>30.0</v>
       </c>
       <c r="I249" s="14" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="J249" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="5" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B250" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E250" s="7" t="s">
         <v>14</v>
@@ -10036,24 +10054,24 @@
         <v>30.0</v>
       </c>
       <c r="I250" s="8" t="s">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="J250" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="11" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B251" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E251" s="13" t="s">
         <v>14</v>
@@ -10068,24 +10086,24 @@
         <v>30.0</v>
       </c>
       <c r="I251" s="14" t="s">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="J251" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="5" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B252" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E252" s="7" t="s">
         <v>14</v>
@@ -10100,53 +10118,53 @@
         <v>30.0</v>
       </c>
       <c r="I252" s="8" t="s">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="J252" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="11" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B253" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D253" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E253" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F253" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G253" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H253" s="14">
+        <v>30.0</v>
+      </c>
+      <c r="I253" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E253" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F253" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G253" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H253" s="14">
-        <v>30.0</v>
-      </c>
-      <c r="I253" s="14" t="s">
-        <v>252</v>
-      </c>
       <c r="J253" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="5" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B254" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D254" s="6" t="s">
         <v>13</v>
@@ -10164,21 +10182,21 @@
         <v>30.0</v>
       </c>
       <c r="I254" s="8" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="J254" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="11" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B255" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D255" s="12" t="s">
         <v>21</v>
@@ -10196,24 +10214,24 @@
         <v>30.0</v>
       </c>
       <c r="I255" s="14" t="s">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="J255" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="5" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B256" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E256" s="7" t="s">
         <v>14</v>
@@ -10228,24 +10246,24 @@
         <v>30.0</v>
       </c>
       <c r="I256" s="8" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="J256" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="11" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B257" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E257" s="13" t="s">
         <v>14</v>
@@ -10260,24 +10278,24 @@
         <v>30.0</v>
       </c>
       <c r="I257" s="14" t="s">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="J257" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="5" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B258" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E258" s="7" t="s">
         <v>14</v>
@@ -10292,24 +10310,24 @@
         <v>30.0</v>
       </c>
       <c r="I258" s="8" t="s">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="J258" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="11" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B259" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E259" s="13" t="s">
         <v>14</v>
@@ -10324,24 +10342,24 @@
         <v>30.0</v>
       </c>
       <c r="I259" s="14" t="s">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="J259" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="5" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B260" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E260" s="7" t="s">
         <v>14</v>
@@ -10356,24 +10374,24 @@
         <v>30.0</v>
       </c>
       <c r="I260" s="8" t="s">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="J260" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="11" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B261" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E261" s="13" t="s">
         <v>14</v>
@@ -10388,24 +10406,24 @@
         <v>30.0</v>
       </c>
       <c r="I261" s="14" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="J261" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="5" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B262" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E262" s="7" t="s">
         <v>14</v>
@@ -10420,21 +10438,21 @@
         <v>30.0</v>
       </c>
       <c r="I262" s="8" t="s">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="J262" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="11" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B263" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D263" s="12" t="s">
         <v>13</v>
@@ -10452,21 +10470,21 @@
         <v>30.0</v>
       </c>
       <c r="I263" s="14" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="J263" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="5" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B264" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D264" s="6" t="s">
         <v>21</v>
@@ -10484,24 +10502,24 @@
         <v>30.0</v>
       </c>
       <c r="I264" s="8" t="s">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="J264" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="11" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B265" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E265" s="13" t="s">
         <v>14</v>
@@ -10516,24 +10534,24 @@
         <v>30.0</v>
       </c>
       <c r="I265" s="14" t="s">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="J265" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="5" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B266" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E266" s="7" t="s">
         <v>14</v>
@@ -10548,24 +10566,24 @@
         <v>30.0</v>
       </c>
       <c r="I266" s="8" t="s">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="J266" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="11" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B267" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E267" s="13" t="s">
         <v>14</v>
@@ -10580,24 +10598,24 @@
         <v>30.0</v>
       </c>
       <c r="I267" s="14" t="s">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="J267" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="5" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B268" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E268" s="7" t="s">
         <v>14</v>
@@ -10612,24 +10630,24 @@
         <v>30.0</v>
       </c>
       <c r="I268" s="8" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="J268" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="11" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B269" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E269" s="13" t="s">
         <v>14</v>
@@ -10644,24 +10662,24 @@
         <v>30.0</v>
       </c>
       <c r="I269" s="14" t="s">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="J269" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="5" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E270" s="7" t="s">
         <v>14</v>
@@ -10676,24 +10694,24 @@
         <v>30.0</v>
       </c>
       <c r="I270" s="8" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="J270" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="11" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B271" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E271" s="13" t="s">
         <v>14</v>
@@ -10708,21 +10726,21 @@
         <v>30.0</v>
       </c>
       <c r="I271" s="14" t="s">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="J271" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="5" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D272" s="6" t="s">
         <v>13</v>
@@ -10740,21 +10758,21 @@
         <v>30.0</v>
       </c>
       <c r="I272" s="8" t="s">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="J272" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="11" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B273" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D273" s="12" t="s">
         <v>21</v>
@@ -10772,24 +10790,24 @@
         <v>30.0</v>
       </c>
       <c r="I273" s="14" t="s">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="J273" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="5" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B274" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E274" s="7" t="s">
         <v>14</v>
@@ -10804,24 +10822,24 @@
         <v>30.0</v>
       </c>
       <c r="I274" s="8" t="s">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="J274" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B275" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D275" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E275" s="13" t="s">
         <v>14</v>
@@ -10836,24 +10854,24 @@
         <v>30.0</v>
       </c>
       <c r="I275" s="14" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="J275" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="5" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B276" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E276" s="7" t="s">
         <v>14</v>
@@ -10868,24 +10886,24 @@
         <v>30.0</v>
       </c>
       <c r="I276" s="8" t="s">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="J276" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="11" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B277" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="D277" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E277" s="13" t="s">
         <v>14</v>
@@ -10900,24 +10918,24 @@
         <v>30.0</v>
       </c>
       <c r="I277" s="14" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="J277" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="5" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E278" s="7" t="s">
         <v>14</v>
@@ -10932,24 +10950,24 @@
         <v>30.0</v>
       </c>
       <c r="I278" s="8" t="s">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="J278" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="11" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B279" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E279" s="13" t="s">
         <v>14</v>
@@ -10964,24 +10982,24 @@
         <v>30.0</v>
       </c>
       <c r="I279" s="14" t="s">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="J279" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="5" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B280" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E280" s="7" t="s">
         <v>14</v>
@@ -10996,21 +11014,21 @@
         <v>30.0</v>
       </c>
       <c r="I280" s="8" t="s">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="J280" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="11" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B281" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D281" s="12" t="s">
         <v>13</v>
@@ -11028,21 +11046,21 @@
         <v>30.0</v>
       </c>
       <c r="I281" s="14" t="s">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="J281" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="5" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B282" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="D282" s="6" t="s">
         <v>21</v>
@@ -11060,24 +11078,24 @@
         <v>30.0</v>
       </c>
       <c r="I282" s="8" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="J282" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="11" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B283" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="D283" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E283" s="13" t="s">
         <v>14</v>
@@ -11092,24 +11110,24 @@
         <v>30.0</v>
       </c>
       <c r="I283" s="14" t="s">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="J283" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B284" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E284" s="7" t="s">
         <v>14</v>
@@ -11124,56 +11142,56 @@
         <v>30.0</v>
       </c>
       <c r="I284" s="8" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="J284" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="11" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B285" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D285" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E285" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F285" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G285" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H285" s="14">
+        <v>30.0</v>
+      </c>
+      <c r="I285" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E285" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F285" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G285" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H285" s="14">
-        <v>30.0</v>
-      </c>
-      <c r="I285" s="14" t="s">
-        <v>252</v>
-      </c>
       <c r="J285" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="5" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E286" s="7" t="s">
         <v>14</v>
@@ -11188,24 +11206,24 @@
         <v>30.0</v>
       </c>
       <c r="I286" s="8" t="s">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="J286" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="11" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B287" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="D287" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E287" s="13" t="s">
         <v>14</v>
@@ -11220,24 +11238,24 @@
         <v>30.0</v>
       </c>
       <c r="I287" s="14" t="s">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="J287" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B288" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E288" s="7" t="s">
         <v>14</v>
@@ -11252,24 +11270,24 @@
         <v>30.0</v>
       </c>
       <c r="I288" s="8" t="s">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="J288" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="11" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B289" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D289" s="12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E289" s="13" t="s">
         <v>14</v>
@@ -11284,21 +11302,21 @@
         <v>30.0</v>
       </c>
       <c r="I289" s="14" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="J289" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="5" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B290" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D290" s="6" t="s">
         <v>13</v>
@@ -11316,21 +11334,21 @@
         <v>30.0</v>
       </c>
       <c r="I290" s="8" t="s">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="J290" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="11" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B291" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C291" s="12" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D291" s="12" t="s">
         <v>21</v>
@@ -11348,24 +11366,24 @@
         <v>30.0</v>
       </c>
       <c r="I291" s="14" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="J291" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="5" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E292" s="7" t="s">
         <v>14</v>
@@ -11380,24 +11398,24 @@
         <v>30.0</v>
       </c>
       <c r="I292" s="8" t="s">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="J292" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="11" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B293" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="D293" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E293" s="13" t="s">
         <v>14</v>
@@ -11412,24 +11430,24 @@
         <v>30.0</v>
       </c>
       <c r="I293" s="14" t="s">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="J293" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="5" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E294" s="7" t="s">
         <v>14</v>
@@ -11444,24 +11462,24 @@
         <v>30.0</v>
       </c>
       <c r="I294" s="8" t="s">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="J294" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="11" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B295" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D295" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E295" s="13" t="s">
         <v>14</v>
@@ -11476,24 +11494,24 @@
         <v>30.0</v>
       </c>
       <c r="I295" s="14" t="s">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="J295" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="5" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E296" s="7" t="s">
         <v>14</v>
@@ -11508,24 +11526,24 @@
         <v>30.0</v>
       </c>
       <c r="I296" s="8" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="J296" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="11" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B297" s="12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D297" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E297" s="13" t="s">
         <v>14</v>
@@ -11540,24 +11558,24 @@
         <v>30.0</v>
       </c>
       <c r="I297" s="14" t="s">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="J297" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="5" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E298" s="7" t="s">
         <v>14</v>
@@ -11572,21 +11590,21 @@
         <v>30.0</v>
       </c>
       <c r="I298" s="8" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="J298" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="11" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B299" s="12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C299" s="12" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D299" s="12" t="s">
         <v>13</v>
@@ -11604,21 +11622,21 @@
         <v>30.0</v>
       </c>
       <c r="I299" s="14" t="s">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="J299" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="5" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B300" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>21</v>
@@ -11636,24 +11654,24 @@
         <v>30.0</v>
       </c>
       <c r="I300" s="8" t="s">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="J300" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="11" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B301" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D301" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E301" s="13" t="s">
         <v>14</v>
@@ -11668,24 +11686,24 @@
         <v>30.0</v>
       </c>
       <c r="I301" s="14" t="s">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="J301" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="5" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E302" s="7" t="s">
         <v>14</v>
@@ -11700,24 +11718,24 @@
         <v>30.0</v>
       </c>
       <c r="I302" s="8" t="s">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="J302" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="11" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B303" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C303" s="12" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D303" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E303" s="13" t="s">
         <v>14</v>
@@ -11732,24 +11750,24 @@
         <v>30.0</v>
       </c>
       <c r="I303" s="14" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="J303" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="5" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E304" s="7" t="s">
         <v>14</v>
@@ -11764,24 +11782,24 @@
         <v>30.0</v>
       </c>
       <c r="I304" s="8" t="s">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="J304" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="11" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B305" s="12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C305" s="12" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D305" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E305" s="13" t="s">
         <v>14</v>
@@ -11796,24 +11814,24 @@
         <v>30.0</v>
       </c>
       <c r="I305" s="14" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="J305" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E306" s="7" t="s">
         <v>14</v>
@@ -11828,24 +11846,24 @@
         <v>30.0</v>
       </c>
       <c r="I306" s="8" t="s">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="J306" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="11" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B307" s="12" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C307" s="12" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E307" s="13" t="s">
         <v>14</v>
@@ -11860,21 +11878,21 @@
         <v>30.0</v>
       </c>
       <c r="I307" s="14" t="s">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="J307" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="5" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D308" s="6" t="s">
         <v>13</v>
@@ -11892,21 +11910,21 @@
         <v>30.0</v>
       </c>
       <c r="I308" s="8" t="s">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="J308" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="11" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C309" s="12" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D309" s="12" t="s">
         <v>21</v>
@@ -11924,24 +11942,24 @@
         <v>30.0</v>
       </c>
       <c r="I309" s="14" t="s">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="J309" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="5" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E310" s="7" t="s">
         <v>14</v>
@@ -11956,24 +11974,24 @@
         <v>30.0</v>
       </c>
       <c r="I310" s="8" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="J310" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="11" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B311" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C311" s="12" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D311" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E311" s="13" t="s">
         <v>14</v>
@@ -11988,24 +12006,24 @@
         <v>30.0</v>
       </c>
       <c r="I311" s="14" t="s">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="J311" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="5" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E312" s="7" t="s">
         <v>14</v>
@@ -12020,24 +12038,24 @@
         <v>30.0</v>
       </c>
       <c r="I312" s="8" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="J312" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="11" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B313" s="12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C313" s="12" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D313" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E313" s="13" t="s">
         <v>14</v>
@@ -12052,24 +12070,24 @@
         <v>30.0</v>
       </c>
       <c r="I313" s="14" t="s">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="J313" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="5" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E314" s="7" t="s">
         <v>14</v>
@@ -12084,24 +12102,24 @@
         <v>30.0</v>
       </c>
       <c r="I314" s="8" t="s">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="J314" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="11" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B315" s="12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C315" s="12" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D315" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E315" s="13" t="s">
         <v>14</v>
@@ -12116,53 +12134,53 @@
         <v>30.0</v>
       </c>
       <c r="I315" s="14" t="s">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="J315" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="5" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D316" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E316" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F316" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G316" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H316" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="I316" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E316" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F316" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G316" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H316" s="8">
-        <v>30.0</v>
-      </c>
-      <c r="I316" s="8" t="s">
-        <v>252</v>
-      </c>
       <c r="J316" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="11" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B317" s="12" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C317" s="12" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D317" s="18" t="s">
         <v>13</v>
@@ -12180,21 +12198,21 @@
         <v>30.0</v>
       </c>
       <c r="I317" s="14" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="J317" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="5" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D318" s="19" t="s">
         <v>21</v>
@@ -12212,24 +12230,24 @@
         <v>30.0</v>
       </c>
       <c r="I318" s="8" t="s">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="J318" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="11" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B319" s="12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C319" s="12" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D319" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E319" s="13" t="s">
         <v>14</v>
@@ -12244,24 +12262,24 @@
         <v>30.0</v>
       </c>
       <c r="I319" s="14" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="J319" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="5" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D320" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E320" s="7" t="s">
         <v>14</v>
@@ -12276,24 +12294,24 @@
         <v>30.0</v>
       </c>
       <c r="I320" s="8" t="s">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="J320" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="11" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B321" s="12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C321" s="12" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D321" s="18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E321" s="13" t="s">
         <v>14</v>
@@ -12308,24 +12326,24 @@
         <v>30.0</v>
       </c>
       <c r="I321" s="14" t="s">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="J321" s="16" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="5" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D322" s="19" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E322" s="7" t="s">
         <v>14</v>
@@ -12340,24 +12358,24 @@
         <v>30.0</v>
       </c>
       <c r="I322" s="8" t="s">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="J322" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="20" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B323" s="21" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C323" s="21" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D323" s="18" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E323" s="22" t="s">
         <v>14</v>
@@ -12372,47 +12390,67 @@
         <v>30.0</v>
       </c>
       <c r="I323" s="23" t="s">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="J323" s="25" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="26"/>
+      <c r="I324" s="27"/>
     </row>
     <row r="325">
-      <c r="D325" s="27"/>
+      <c r="D325" s="28"/>
+      <c r="I325" s="27"/>
     </row>
     <row r="326">
-      <c r="D326" s="28"/>
+      <c r="D326" s="29"/>
+      <c r="I326" s="27"/>
     </row>
     <row r="327">
       <c r="A327" s="26"/>
-      <c r="D327" s="27"/>
+      <c r="D327" s="28"/>
+      <c r="I327" s="27"/>
     </row>
     <row r="328">
-      <c r="D328" s="28"/>
+      <c r="D328" s="29"/>
+      <c r="I328" s="27"/>
     </row>
     <row r="329">
-      <c r="D329" s="27"/>
+      <c r="D329" s="28"/>
+      <c r="I329" s="27"/>
     </row>
     <row r="330">
       <c r="A330" s="26"/>
-      <c r="D330" s="28"/>
+      <c r="D330" s="29"/>
+      <c r="I330" s="27"/>
     </row>
     <row r="331">
-      <c r="D331" s="27"/>
+      <c r="D331" s="28"/>
+      <c r="I331" s="27"/>
     </row>
     <row r="332">
-      <c r="D332" s="28"/>
+      <c r="D332" s="29"/>
+      <c r="I332" s="27"/>
     </row>
     <row r="333">
       <c r="A333" s="26"/>
-      <c r="D333" s="27"/>
+      <c r="D333" s="28"/>
+      <c r="I333" s="27"/>
+    </row>
+    <row r="334">
+      <c r="I334" s="27"/>
+    </row>
+    <row r="335">
+      <c r="I335" s="27"/>
     </row>
     <row r="336">
       <c r="A336" s="26"/>
+      <c r="I336" s="27"/>
+    </row>
+    <row r="337">
+      <c r="I337" s="27"/>
     </row>
     <row r="339">
       <c r="A339" s="26"/>
